--- a/grupos/2ALCV - Estadisticos 20202.xlsx
+++ b/grupos/2ALCV - Estadisticos 20202.xlsx
@@ -3681,10 +3681,10 @@
         <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3701,10 +3701,10 @@
         <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/grupos/2ALCV - Estadisticos 20202.xlsx
+++ b/grupos/2ALCV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
   <si>
     <t>Materia</t>
   </si>
@@ -185,12 +185,12 @@
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
+    <t>Flores Ovalle Victor</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
     <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
@@ -209,58 +209,172 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CEREZO</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>OLIVERA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>DAMIEN</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>DULCE FERNANDA</t>
+  </si>
+  <si>
+    <t>SILVIA ANGELICA</t>
+  </si>
+  <si>
+    <t>KITZIA YAMILET</t>
+  </si>
+  <si>
+    <t>CRISTHIAN</t>
+  </si>
+  <si>
+    <t>CLARET YAZMIN</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
     <t>ASCENCION</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CEREZO</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>ESPERON</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
+    <t>NARANJO</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
   </si>
   <si>
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>OLIVERA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>DAMIEN</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
   </si>
   <si>
     <t>HUERTA</t>
@@ -269,190 +383,76 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
     <t>REYNA ARISBETH</t>
   </si>
   <si>
-    <t>DULCE FERNANDA</t>
-  </si>
-  <si>
-    <t>SILVIA ANGELICA</t>
-  </si>
-  <si>
-    <t>KITZIA YAMILET</t>
+    <t>MARGARITA JAZMIN</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>MIA VALENTINA</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>FRIDA SOFIA</t>
+  </si>
+  <si>
+    <t>ANTONIO ABIDAN</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MILAGROS</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
   </si>
   <si>
     <t>SHADAI COSTANTIN</t>
   </si>
   <si>
-    <t>CRISTHIAN</t>
-  </si>
-  <si>
-    <t>CLARET YAZMIN</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>SUSANA</t>
+    <t>MARITZA JULIANA</t>
+  </si>
+  <si>
+    <t>LESLIE</t>
+  </si>
+  <si>
+    <t>YEILI DAYNERIS</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>DIANA SARAY</t>
+  </si>
+  <si>
+    <t>INGRID SARAI</t>
   </si>
   <si>
     <t>ALEJANDRA</t>
   </si>
   <si>
     <t>AMADA ARELY</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>ESPERON</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>PEÑA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>NARANJO</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>MARGARITA JAZMIN</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>ERICK DE JESUS</t>
-  </si>
-  <si>
-    <t>MIA VALENTINA</t>
-  </si>
-  <si>
-    <t>AMARELY GUADALUPE</t>
-  </si>
-  <si>
-    <t>FRIDA SOFIA</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MILAGROS</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>MARITZA JULIANA</t>
-  </si>
-  <si>
-    <t>LESLIE</t>
-  </si>
-  <si>
-    <t>YEILI DAYNERIS</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>DIANA SARAY</t>
-  </si>
-  <si>
-    <t>INGRID SARAI</t>
   </si>
   <si>
     <t>MARIA XIMENA</t>
@@ -965,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S4">
         <v>8</v>
@@ -1021,16 +1021,16 @@
         <v>8</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S5">
         <v>10</v>
@@ -1068,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1098,16 +1098,16 @@
         <v>7</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P6">
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <v>7</v>
@@ -1122,10 +1122,10 @@
         <v>6</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y6">
         <v>6</v>
@@ -1175,16 +1175,16 @@
         <v>9</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P7">
         <v>9</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1252,16 +1252,16 @@
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P8">
         <v>7</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S8">
         <v>7</v>
@@ -1279,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="X8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y8">
         <v>6</v>
@@ -1293,13 +1293,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1311,13 +1311,13 @@
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1329,16 +1329,16 @@
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S9">
         <v>7</v>
@@ -1347,16 +1347,16 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V9">
         <v>6</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y9">
         <v>6</v>
@@ -1376,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1394,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>6</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S10">
         <v>7</v>
@@ -1430,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X10">
         <v>6</v>
@@ -1483,16 +1483,16 @@
         <v>9</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P11">
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S11">
         <v>8</v>
@@ -1510,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="X11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y11">
         <v>7</v>
@@ -1548,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1560,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>7</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S12">
         <v>7</v>
@@ -1584,10 +1584,10 @@
         <v>6</v>
       </c>
       <c r="W12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1601,13 +1601,13 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1619,13 +1619,13 @@
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1637,16 +1637,16 @@
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P13">
         <v>6</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S13">
         <v>7</v>
@@ -1655,13 +1655,13 @@
         <v>5</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V13">
         <v>6</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X13">
         <v>5</v>
@@ -1714,16 +1714,16 @@
         <v>8</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P14">
         <v>8</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S14">
         <v>9</v>
@@ -1791,16 +1791,16 @@
         <v>10</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P15">
         <v>10</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S15">
         <v>9</v>
@@ -1815,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="W15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X15">
         <v>9</v>
@@ -1868,16 +1868,16 @@
         <v>8</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>7</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S16">
         <v>8</v>
@@ -1895,7 +1895,7 @@
         <v>6</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y16">
         <v>7</v>
@@ -1945,16 +1945,16 @@
         <v>7</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P17">
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S17">
         <v>9</v>
@@ -1969,10 +1969,10 @@
         <v>8</v>
       </c>
       <c r="W17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y17">
         <v>8</v>
@@ -2022,16 +2022,16 @@
         <v>10</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P18">
         <v>10</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S18">
         <v>9</v>
@@ -2099,16 +2099,16 @@
         <v>7</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P19">
         <v>7</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S19">
         <v>6</v>
@@ -2176,16 +2176,16 @@
         <v>10</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P20">
         <v>8</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S20">
         <v>9</v>
@@ -2194,13 +2194,13 @@
         <v>10</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V20">
         <v>8</v>
       </c>
       <c r="W20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X20">
         <v>8</v>
@@ -2253,16 +2253,16 @@
         <v>10</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P21">
         <v>10</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S21">
         <v>9</v>
@@ -2294,13 +2294,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2312,13 +2312,13 @@
         <v>-1</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2330,16 +2330,16 @@
         <v>-1</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P22">
         <v>7</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S22">
         <v>7</v>
@@ -2348,13 +2348,13 @@
         <v>5</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V22">
         <v>6</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X22">
         <v>5</v>
@@ -2407,16 +2407,16 @@
         <v>10</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P23">
         <v>8</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S23">
         <v>8</v>
@@ -2448,13 +2448,13 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2466,13 +2466,13 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2484,16 +2484,16 @@
         <v>-1</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P24">
         <v>6</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S24">
         <v>7</v>
@@ -2502,13 +2502,13 @@
         <v>5</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V24">
         <v>6</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X24">
         <v>5</v>
@@ -2561,16 +2561,16 @@
         <v>9</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P25">
         <v>10</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S25">
         <v>8</v>
@@ -2638,16 +2638,16 @@
         <v>10</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P26">
         <v>10</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S26">
         <v>9</v>
@@ -2715,16 +2715,16 @@
         <v>10</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P27">
         <v>7</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S27">
         <v>8</v>
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="W27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X27">
         <v>8</v>
@@ -2792,16 +2792,16 @@
         <v>10</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P28">
         <v>10</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S28">
         <v>8</v>
@@ -2833,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2851,7 +2851,7 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -2869,16 +2869,16 @@
         <v>-1</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P29">
         <v>6</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S29">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V29">
         <v>6</v>
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="X29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>7</v>
@@ -2946,16 +2946,16 @@
         <v>10</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P30">
         <v>8</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S30">
         <v>9</v>
@@ -2993,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -3011,7 +3011,7 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -3023,16 +3023,16 @@
         <v>7</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P31">
         <v>7</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S31">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X31">
         <v>5</v>
@@ -3070,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -3088,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -3100,16 +3100,16 @@
         <v>6</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P32">
         <v>6</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S32">
         <v>7</v>
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y32">
         <v>6</v>
@@ -3177,16 +3177,16 @@
         <v>9</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P33">
         <v>8</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S33">
         <v>9</v>
@@ -3254,16 +3254,16 @@
         <v>10</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P34">
         <v>9</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S34">
         <v>10</v>
@@ -3281,7 +3281,7 @@
         <v>10</v>
       </c>
       <c r="X34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y34">
         <v>10</v>
@@ -3331,16 +3331,16 @@
         <v>10</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P35">
         <v>10</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S35">
         <v>10</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -3493,30 +3493,30 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>68.75</v>
+        <v>71.88</v>
       </c>
       <c r="G4">
-        <v>6.25</v>
+        <v>28.13</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>31.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -3525,19 +3525,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>71.88</v>
+        <v>78.13</v>
       </c>
       <c r="G5">
-        <v>28.13</v>
+        <v>21.88</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3557,25 +3557,25 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3617,7 +3617,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3649,36 +3649,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920190</v>
+        <v>20330051920193</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920193</v>
+        <v>20330051920392</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -3689,76 +3689,76 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920193</v>
+        <v>20330051920194</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920392</v>
+        <v>20330051920204</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920392</v>
+        <v>20330051920205</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920392</v>
+        <v>20330051920207</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -3769,322 +3769,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920194</v>
+        <v>20330051920213</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920203</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920204</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20330051920205</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920205</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>20330051920205</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>20330051920207</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>20330051920207</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>20330051920207</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>20330051920213</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20330051920213</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>20330051920214</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>20330051920215</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4123,104 +3823,104 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920392</v>
+        <v>20330051920193</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920204</v>
+        <v>20330051920392</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920205</v>
+        <v>20330051920194</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920207</v>
+        <v>20330051920204</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920193</v>
+        <v>20330051920205</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920194</v>
+        <v>20330051920207</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4228,16 +3928,16 @@
         <v>20330051920213</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4245,78 +3945,78 @@
         <v>20330051920190</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920203</v>
+        <v>17330051920305</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920214</v>
+        <v>20330051920191</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920215</v>
+        <v>20330051920192</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>17330051920305</v>
+        <v>20330051920196</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -4327,13 +4027,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920191</v>
+        <v>20330051920197</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>129</v>
@@ -4344,13 +4044,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920192</v>
+        <v>20330051920198</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
@@ -4361,13 +4061,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920196</v>
+        <v>20330051920199</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -4378,13 +4078,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920197</v>
+        <v>20330051920200</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>132</v>
@@ -4395,13 +4095,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920198</v>
+        <v>20330051920201</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -4412,13 +4112,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920199</v>
+        <v>19330051920280</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>134</v>
@@ -4429,13 +4129,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920200</v>
+        <v>20330051920202</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>135</v>
@@ -4446,13 +4146,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920201</v>
+        <v>20330051920203</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
         <v>136</v>
@@ -4463,13 +4163,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920280</v>
+        <v>20330051920206</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>137</v>
@@ -4480,13 +4180,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920202</v>
+        <v>20330051920208</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>138</v>
@@ -4497,13 +4197,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920206</v>
+        <v>20330051920209</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
         <v>139</v>
@@ -4514,13 +4214,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920208</v>
+        <v>20330051920210</v>
       </c>
       <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
         <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>121</v>
       </c>
       <c r="D25" t="s">
         <v>140</v>
@@ -4531,13 +4231,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920209</v>
+        <v>20330051920211</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
         <v>141</v>
@@ -4548,13 +4248,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920210</v>
+        <v>20330051920212</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
         <v>142</v>
@@ -4565,13 +4265,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920211</v>
+        <v>20330051920214</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>143</v>
@@ -4582,13 +4282,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920212</v>
+        <v>20330051920215</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>144</v>
@@ -4602,10 +4302,10 @@
         <v>20330051920216</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -4619,10 +4319,10 @@
         <v>20330051920217</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
         <v>146</v>
@@ -4636,10 +4336,10 @@
         <v>20330051920218</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
         <v>147</v>
@@ -4653,10 +4353,10 @@
         <v>20330051920219</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -4672,7 +4372,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4710,13 +4410,13 @@
         <v>20330051920196</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4733,13 +4433,13 @@
         <v>20330051920196</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4753,62 +4453,62 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920214</v>
+        <v>20330051920203</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920214</v>
+        <v>20330051920203</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920191</v>
+        <v>20330051920213</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -4817,27 +4517,27 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920198</v>
+        <v>20330051920213</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -4845,16 +4545,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920200</v>
+        <v>20330051920191</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -4868,16 +4568,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920218</v>
+        <v>20330051920198</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
         <v>110</v>
       </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -4886,6 +4586,75 @@
         <v>53</v>
       </c>
       <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ALCV - Estadisticos 20202.xlsx
+++ b/grupos/2ALCV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
   <si>
     <t>Materia</t>
   </si>
@@ -209,6 +209,18 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ASCENCION</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
@@ -218,19 +230,79 @@
     <t>CHICO</t>
   </si>
   <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>ESPERON</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
     <t>LUIS</t>
   </si>
   <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>GOMEZ</t>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>NARANJO</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
   </si>
   <si>
     <t>REYES</t>
@@ -239,6 +311,27 @@
     <t>CRUZ</t>
   </si>
   <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
     <t>OLIVERA</t>
   </si>
   <si>
@@ -248,9 +341,48 @@
     <t>DAMIEN</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>ZACARIAS</t>
   </si>
   <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>REYNA ARISBETH</t>
+  </si>
+  <si>
+    <t>MARGARITA JAZMIN</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
     <t>DULCE FERNANDA</t>
   </si>
   <si>
@@ -260,193 +392,61 @@
     <t>KITZIA YAMILET</t>
   </si>
   <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>MIA VALENTINA</t>
+  </si>
+  <si>
+    <t>AMARELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>FRIDA SOFIA</t>
+  </si>
+  <si>
+    <t>ANTONIO ABIDAN</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MILAGROS</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>SHADAI COSTANTIN</t>
+  </si>
+  <si>
     <t>CRISTHIAN</t>
   </si>
   <si>
     <t>CLARET YAZMIN</t>
   </si>
   <si>
+    <t>MARITZA JULIANA</t>
+  </si>
+  <si>
     <t>VICTOR MANUEL</t>
   </si>
   <si>
+    <t>LESLIE</t>
+  </si>
+  <si>
+    <t>YEILI DAYNERIS</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>DIANA SARAY</t>
+  </si>
+  <si>
+    <t>INGRID SARAI</t>
+  </si>
+  <si>
     <t>SUSANA</t>
-  </si>
-  <si>
-    <t>ASCENCION</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>ESPERON</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>PEÑA</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>NARANJO</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>ROQUE</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>REYNA ARISBETH</t>
-  </si>
-  <si>
-    <t>MARGARITA JAZMIN</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>ERICK DE JESUS</t>
-  </si>
-  <si>
-    <t>MIA VALENTINA</t>
-  </si>
-  <si>
-    <t>AMARELY GUADALUPE</t>
-  </si>
-  <si>
-    <t>FRIDA SOFIA</t>
-  </si>
-  <si>
-    <t>ANTONIO ABIDAN</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MILAGROS</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>SHADAI COSTANTIN</t>
-  </si>
-  <si>
-    <t>MARITZA JULIANA</t>
-  </si>
-  <si>
-    <t>LESLIE</t>
-  </si>
-  <si>
-    <t>YEILI DAYNERIS</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>DIANA SARAY</t>
-  </si>
-  <si>
-    <t>INGRID SARAI</t>
   </si>
   <si>
     <t>ALEJANDRA</t>
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <v>6</v>
@@ -1267,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -1308,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1326,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>6</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1403,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>6</v>
@@ -1421,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -1616,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -1634,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>6</v>
@@ -2309,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -2327,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O22">
         <v>6</v>
@@ -2463,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2481,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O24">
         <v>6</v>
@@ -2848,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -2866,7 +2866,7 @@
         <v>7</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O29">
         <v>6</v>
@@ -3441,13 +3441,13 @@
         <v>48.39</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>22.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3617,7 +3617,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3645,146 +3645,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920193</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920392</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920205</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920207</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920213</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3823,75 +3683,75 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920193</v>
+        <v>20330051920190</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920392</v>
+        <v>17330051920305</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920194</v>
+        <v>20330051920191</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920204</v>
+        <v>20330051920192</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920205</v>
+        <v>20330051920193</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -3900,55 +3760,55 @@
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920207</v>
+        <v>20330051920392</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920213</v>
+        <v>20330051920194</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920190</v>
+        <v>20330051920196</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>124</v>
@@ -3959,13 +3819,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>17330051920305</v>
+        <v>20330051920197</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>125</v>
@@ -3976,13 +3836,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920191</v>
+        <v>20330051920198</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>126</v>
@@ -3993,13 +3853,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920192</v>
+        <v>20330051920199</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>127</v>
@@ -4010,13 +3870,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920196</v>
+        <v>20330051920200</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -4027,13 +3887,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920197</v>
+        <v>20330051920201</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>129</v>
@@ -4044,13 +3904,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920198</v>
+        <v>19330051920280</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
@@ -4061,13 +3921,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920199</v>
+        <v>20330051920202</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -4078,13 +3938,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920200</v>
+        <v>20330051920203</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>132</v>
@@ -4095,13 +3955,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920201</v>
+        <v>20330051920204</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -4112,13 +3972,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920280</v>
+        <v>20330051920205</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>134</v>
@@ -4129,13 +3989,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920202</v>
+        <v>20330051920206</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>135</v>
@@ -4146,13 +4006,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920203</v>
+        <v>20330051920207</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
         <v>136</v>
@@ -4163,13 +4023,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920206</v>
+        <v>20330051920208</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
         <v>137</v>
@@ -4180,13 +4040,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920208</v>
+        <v>20330051920209</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>138</v>
@@ -4197,13 +4057,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920209</v>
+        <v>20330051920210</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
         <v>139</v>
@@ -4214,13 +4074,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920210</v>
+        <v>20330051920211</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>140</v>
@@ -4231,13 +4091,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920211</v>
+        <v>20330051920212</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>141</v>
@@ -4248,13 +4108,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920212</v>
+        <v>20330051920213</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>142</v>
@@ -4268,10 +4128,10 @@
         <v>20330051920214</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>143</v>
@@ -4285,10 +4145,10 @@
         <v>20330051920215</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
         <v>144</v>
@@ -4302,10 +4162,10 @@
         <v>20330051920216</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -4319,10 +4179,10 @@
         <v>20330051920217</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>146</v>
@@ -4336,10 +4196,10 @@
         <v>20330051920218</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
         <v>147</v>
@@ -4353,10 +4213,10 @@
         <v>20330051920219</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -4410,13 +4270,13 @@
         <v>20330051920196</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4433,13 +4293,13 @@
         <v>20330051920196</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4456,13 +4316,13 @@
         <v>20330051920203</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -4479,13 +4339,13 @@
         <v>20330051920203</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4502,13 +4362,13 @@
         <v>20330051920213</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -4517,7 +4377,7 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4525,13 +4385,13 @@
         <v>20330051920213</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -4548,13 +4408,13 @@
         <v>20330051920191</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -4571,13 +4431,13 @@
         <v>20330051920198</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -4594,13 +4454,13 @@
         <v>20330051920200</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -4617,10 +4477,10 @@
         <v>20330051920214</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>143</v>
@@ -4640,10 +4500,10 @@
         <v>20330051920218</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>

--- a/grupos/2ALCV - Estadisticos 20202.xlsx
+++ b/grupos/2ALCV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
   <si>
     <t>Materia</t>
   </si>
@@ -182,13 +182,13 @@
     <t>Santiago Hernández Mariana</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
     <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
     <t>Villanueva Morales Luis Arturo</t>
@@ -3429,19 +3429,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>51.61</v>
+        <v>77.42</v>
       </c>
       <c r="G2">
-        <v>48.39</v>
+        <v>22.58</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3452,25 +3452,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>67.73999999999999</v>
+        <v>78.13</v>
       </c>
       <c r="G3">
-        <v>32.26</v>
+        <v>21.88</v>
       </c>
       <c r="H3">
         <v>7.3</v>
@@ -3484,28 +3484,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>71.88</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G4">
-        <v>28.13</v>
+        <v>12.9</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -3525,19 +3525,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>78.13</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>21.88</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4232,7 +4232,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4262,21 +4262,21 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920196</v>
+        <v>20330051920392</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4290,19 +4290,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920196</v>
+        <v>20330051920392</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -4313,16 +4313,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920203</v>
+        <v>20330051920194</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -4336,19 +4336,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920203</v>
+        <v>20330051920194</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -4359,22 +4359,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920213</v>
+        <v>20330051920215</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4382,22 +4382,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920213</v>
+        <v>20330051920215</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920191</v>
+        <v>20330051920190</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4428,16 +4428,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920198</v>
+        <v>20330051920193</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -4451,16 +4451,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920200</v>
+        <v>20330051920213</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -4469,52 +4469,6 @@
         <v>53</v>
       </c>
       <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920214</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920218</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>
